--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,40 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>33-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,15 +496,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compass Before Takeoff</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33-35</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32-35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
